--- a/seed_tool/seed_analysis.xlsx
+++ b/seed_tool/seed_analysis.xlsx
@@ -206,11 +206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145681432"/>
-        <c:axId val="-2134372264"/>
+        <c:axId val="2117042360"/>
+        <c:axId val="2117049256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145681432"/>
+        <c:axId val="2117042360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -239,12 +239,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134372264"/>
+        <c:crossAx val="2117049256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134372264"/>
+        <c:axId val="2117049256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,16 +274,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145681432"/>
+        <c:crossAx val="2117042360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -311,6 +306,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>False Negatives vs Mismatch Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -386,11 +396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2132480472"/>
-        <c:axId val="-2132474872"/>
+        <c:axId val="2116241304"/>
+        <c:axId val="2116235800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2132480472"/>
+        <c:axId val="2116241304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,12 +429,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132474872"/>
+        <c:crossAx val="2116235800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2132474872"/>
+        <c:axId val="2116235800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,16 +464,429 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132480472"/>
+        <c:crossAx val="2116241304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>False Positives vs Shift</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>False Positives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2126460680"/>
+        <c:axId val="2126435816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2126460680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shift Allowed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126435816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2126435816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False Positives %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126460680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>False Negatives vs Shift</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>False Negatives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.4676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.3743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.7192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2089228552"/>
+        <c:axId val="2089203320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2089228552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shift Allowed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2089203320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2089203320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False Negatives %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2089228552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -533,6 +956,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -866,7 +1349,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -941,35 +1424,77 @@
       <c r="A14">
         <v>0</v>
       </c>
+      <c r="B14">
+        <v>2.8561000000000001</v>
+      </c>
+      <c r="C14">
+        <v>10.467599999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
         <v>1</v>
       </c>
+      <c r="B15">
+        <v>3.7627999999999999</v>
+      </c>
+      <c r="C15">
+        <v>11.3743</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
         <v>2</v>
       </c>
+      <c r="B16">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="C16">
+        <v>11.9575</v>
+      </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>3</v>
       </c>
+      <c r="B17">
+        <v>4.8375000000000004</v>
+      </c>
+      <c r="C17">
+        <v>12.449</v>
+      </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>4</v>
       </c>
+      <c r="B18">
+        <v>5.1077000000000004</v>
+      </c>
+      <c r="C18">
+        <v>12.719200000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>5</v>
       </c>
+      <c r="B19">
+        <v>5.367</v>
+      </c>
+      <c r="C19">
+        <v>12.9785</v>
+      </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>6</v>
+      </c>
+      <c r="B20">
+        <v>5.5925000000000002</v>
+      </c>
+      <c r="C20">
+        <v>13.204000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/seed_tool/seed_analysis.xlsx
+++ b/seed_tool/seed_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Mismatch Allowed</t>
   </si>
@@ -32,12 +32,15 @@
   <si>
     <t>Shift</t>
   </si>
+  <si>
+    <t>Clusters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +64,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -79,17 +87,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -206,11 +219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117042360"/>
-        <c:axId val="2117049256"/>
+        <c:axId val="2108142664"/>
+        <c:axId val="2108139240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117042360"/>
+        <c:axId val="2108142664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -239,12 +252,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117049256"/>
+        <c:crossAx val="2108139240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117049256"/>
+        <c:axId val="2108139240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,7 +287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117042360"/>
+        <c:crossAx val="2108142664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -396,11 +409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116241304"/>
-        <c:axId val="2116235800"/>
+        <c:axId val="2106849480"/>
+        <c:axId val="2106843992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116241304"/>
+        <c:axId val="2106849480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,12 +442,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116235800"/>
+        <c:crossAx val="2106843992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116235800"/>
+        <c:axId val="2106843992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,7 +477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116241304"/>
+        <c:crossAx val="2106849480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -604,11 +617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126460680"/>
-        <c:axId val="2126435816"/>
+        <c:axId val="2106815896"/>
+        <c:axId val="2106810376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126460680"/>
+        <c:axId val="2106815896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,12 +650,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126435816"/>
+        <c:crossAx val="2106810376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126435816"/>
+        <c:axId val="2106810376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.0"/>
@@ -673,7 +686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126460680"/>
+        <c:crossAx val="2106815896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -813,11 +826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2089228552"/>
-        <c:axId val="2089203320"/>
+        <c:axId val="2106782200"/>
+        <c:axId val="2106776680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2089228552"/>
+        <c:axId val="2106782200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,12 +859,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089203320"/>
+        <c:crossAx val="2106776680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2089203320"/>
+        <c:axId val="2106776680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -882,7 +895,210 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089228552"/>
+        <c:crossAx val="2106782200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Clusters vs Mismatch Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clusters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$30:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>232456.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151302.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135756.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121314184"/>
+        <c:axId val="2122246808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121314184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Allowed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Mismatch Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122246808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2122246808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121314184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1016,6 +1232,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1346,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1495,6 +1741,46 @@
       </c>
       <c r="C20">
         <v>13.204000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>232456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>151302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>135756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>127400</v>
       </c>
     </row>
   </sheetData>
